--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>206.6539789748495</v>
+        <v>-2356.366356929801</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>206.839263771214</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>151.3303693545748</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>216.4355912377214</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,13 +823,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>55.80159992658235</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>17.20645273641359</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>333.5770488146892</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>109.1377406624911</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>41.25141578960665</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>160.4169160406389</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>152.0149916946048</v>
+        <v>40.05721176170762</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>98.16132326933115</v>
       </c>
       <c r="F10" t="n">
-        <v>118.1274230671136</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042090073</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>177.1006680594876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520917</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>271.1749250822289</v>
       </c>
       <c r="V16" t="n">
-        <v>200.8308082455011</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.64725059288514</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>22.61263105777474</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.7673426709131</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>20.43112068613155</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>168.3381167077338</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>102.6244980900704</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>103.9877674501602</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>95.81917536083697</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>106.7475924760365</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>125.8152577453153</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>639.4419116165413</v>
+        <v>1111.21625221209</v>
       </c>
       <c r="C2" t="n">
-        <v>270.4793946761296</v>
+        <v>742.2537352716782</v>
       </c>
       <c r="D2" t="n">
-        <v>270.4793946761296</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="E2" t="n">
-        <v>270.4793946761296</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="F2" t="n">
-        <v>270.4793946761296</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>270.4793946761296</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.01262627016</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926589</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W2" t="n">
-        <v>1416.181083656475</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X2" t="n">
-        <v>1416.181083656475</v>
+        <v>1887.955424252023</v>
       </c>
       <c r="Y2" t="n">
-        <v>1026.041751680663</v>
+        <v>1497.816092276212</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217535</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.463386300792</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4446,10 +4446,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1753.216257435907</v>
+        <v>791.0311677684841</v>
       </c>
       <c r="C4" t="n">
-        <v>1584.280074508</v>
+        <v>622.0949848405772</v>
       </c>
       <c r="D4" t="n">
-        <v>1434.163435095664</v>
+        <v>471.9783454282415</v>
       </c>
       <c r="E4" t="n">
-        <v>1286.250341513271</v>
+        <v>471.9783454282415</v>
       </c>
       <c r="F4" t="n">
-        <v>1139.360394015361</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>1082.995141564267</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>1082.995141564267</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936607</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075599</v>
+        <v>1516.482458300773</v>
       </c>
       <c r="T4" t="n">
-        <v>2263.127174075599</v>
+        <v>1516.482458300773</v>
       </c>
       <c r="U4" t="n">
-        <v>1974.008836579437</v>
+        <v>1227.364120804611</v>
       </c>
       <c r="V4" t="n">
-        <v>1974.008836579437</v>
+        <v>972.6796325987239</v>
       </c>
       <c r="W4" t="n">
-        <v>1974.008836579437</v>
+        <v>972.6796325987239</v>
       </c>
       <c r="X4" t="n">
-        <v>1974.008836579437</v>
+        <v>972.6796325987239</v>
       </c>
       <c r="Y4" t="n">
-        <v>1753.216257435907</v>
+        <v>972.6796325987239</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.551232880758</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="C5" t="n">
-        <v>1054.551232880758</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="D5" t="n">
-        <v>1054.551232880758</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974333</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078258</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2184.059060190805</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>1831.290404920691</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>1831.290404920691</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y5" t="n">
-        <v>1441.151072944879</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>815.1145481251083</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1178.376567084328</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681274</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>515.8852429786114</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="C7" t="n">
-        <v>515.8852429786114</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D7" t="n">
-        <v>515.8852429786114</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962183</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V7" t="n">
-        <v>859.5709967387894</v>
+        <v>1082.549477544053</v>
       </c>
       <c r="W7" t="n">
-        <v>697.5337078088511</v>
+        <v>1082.549477544053</v>
       </c>
       <c r="X7" t="n">
-        <v>697.5337078088511</v>
+        <v>854.559926646036</v>
       </c>
       <c r="Y7" t="n">
-        <v>697.5337078088511</v>
+        <v>854.559926646036</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1005.344648689697</v>
+        <v>1296.296386131215</v>
       </c>
       <c r="C8" t="n">
-        <v>636.3821317492857</v>
+        <v>927.3338691908036</v>
       </c>
       <c r="D8" t="n">
-        <v>278.1164331425352</v>
+        <v>569.0681705840532</v>
       </c>
       <c r="E8" t="n">
-        <v>278.1164331425352</v>
+        <v>569.0681705840532</v>
       </c>
       <c r="F8" t="n">
-        <v>271.1709323933317</v>
+        <v>158.0822657944456</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4802,25 +4802,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4835,19 +4835,19 @@
         <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.01262627016</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926589</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W8" t="n">
-        <v>1768.949738926589</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X8" t="n">
-        <v>1395.483980665509</v>
+        <v>1296.296386131215</v>
       </c>
       <c r="Y8" t="n">
-        <v>1005.344648689697</v>
+        <v>1296.296386131215</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694948</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.0610190099388</v>
+        <v>614.0149486813318</v>
       </c>
       <c r="C10" t="n">
-        <v>741.0610190099388</v>
+        <v>614.0149486813318</v>
       </c>
       <c r="D10" t="n">
-        <v>741.0610190099388</v>
+        <v>614.0149486813318</v>
       </c>
       <c r="E10" t="n">
-        <v>593.1479254275457</v>
+        <v>514.8620968941286</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234358</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U10" t="n">
-        <v>1150.699034738196</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V10" t="n">
-        <v>1150.699034738196</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="W10" t="n">
-        <v>1150.699034738196</v>
+        <v>1244.445543553119</v>
       </c>
       <c r="X10" t="n">
-        <v>922.7094838401786</v>
+        <v>1016.455992655102</v>
       </c>
       <c r="Y10" t="n">
-        <v>922.7094838401786</v>
+        <v>795.6634135115715</v>
       </c>
     </row>
     <row r="11">
@@ -5036,28 +5036,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179126</v>
       </c>
     </row>
     <row r="14">
@@ -5270,13 +5270,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5291,22 +5291,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,16 +5349,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
@@ -5367,7 +5367,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>632.7243904253733</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7243904253733</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578601</v>
@@ -5431,55 +5431,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782979</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038366</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797769</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.56011257082</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279805</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.572155334121</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W16" t="n">
-        <v>1263.15498529716</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.165434399143</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y16" t="n">
-        <v>814.372855255613</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,10 +5507,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5522,10 +5522,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5537,25 +5537,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>699.2677182139842</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>530.3315352860773</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5741,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,19 +5832,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277355</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E22" t="n">
-        <v>363.7369613277355</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>363.7369613277355</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>196.5408620426154</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6072,22 +6072,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.3544215660705</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>612.4182386381636</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2209.878878107679</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1990.277413130621</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1701.202186474818</v>
+        <v>1873.799971328619</v>
       </c>
       <c r="V25" t="n">
-        <v>1701.202186474818</v>
+        <v>1619.115483122732</v>
       </c>
       <c r="W25" t="n">
-        <v>1411.785016437858</v>
+        <v>1329.698313085771</v>
       </c>
       <c r="X25" t="n">
-        <v>1183.79546553984</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.0028863963103</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6224,7 +6224,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>733.4550657171301</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C28" t="n">
-        <v>564.5188827892232</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D28" t="n">
-        <v>414.4022433768874</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>414.4022433768874</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>414.4022433768874</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1056.376371837086</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>887.4401889091791</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1238.024836667326</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,10 +6695,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,22 +6783,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6917,19 +6917,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7263,7 +7263,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2319.876964645598</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2100.27549966854</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1811.200273012738</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>818.3164847283425</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
         <v>402.7245934908939</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>280.1079373569278</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
-        <v>224.335519760177</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>193.3273467878354</v>
+        <v>319.4183821282434</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -22550,19 +22550,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>147.843777849469</v>
       </c>
       <c r="E2" t="n">
-        <v>13.85522032026267</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>149.6881832078306</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-8.629657607716254e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>125.5054897610366</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>75.03697526434041</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229301</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>15.00954930701528</v>
       </c>
       <c r="V16" t="n">
-        <v>51.30683507832686</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>117.1847295890522</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>45.84813034729925</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>119.8635921600923</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>12.68816929391076</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>183.5599762991737</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>75.84421273177711</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>69.70496293143188</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>41.86788054217581</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>37.12601365260463</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>137.2878198583898</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>55.21102825632927</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1095747.349231632</v>
+        <v>1095747.349231631</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1095747.349231632</v>
+        <v>1095747.349231631</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1095747.349231632</v>
+        <v>1095747.349231631</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1095747.349231632</v>
+        <v>1095747.349231631</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1095747.349231632</v>
+        <v>1095747.349231631</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298593.7657794697</v>
+        <v>298593.7657794696</v>
       </c>
       <c r="C2" t="n">
         <v>328416.7079457135</v>
@@ -26323,10 +26323,10 @@
         <v>322858.6398760026</v>
       </c>
       <c r="F2" t="n">
+        <v>322858.6398760025</v>
+      </c>
+      <c r="G2" t="n">
         <v>322858.6398760026</v>
-      </c>
-      <c r="G2" t="n">
-        <v>322858.6398760025</v>
       </c>
       <c r="H2" t="n">
         <v>322858.6398760024</v>
@@ -26338,22 +26338,22 @@
         <v>322858.6398760024</v>
       </c>
       <c r="K2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="L2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="M2" t="n">
-        <v>322858.6398760022</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="N2" t="n">
+        <v>322858.6398760025</v>
+      </c>
+      <c r="O2" t="n">
+        <v>322858.6398760025</v>
+      </c>
+      <c r="P2" t="n">
         <v>322858.6398760024</v>
-      </c>
-      <c r="O2" t="n">
-        <v>322858.6398760023</v>
-      </c>
-      <c r="P2" t="n">
-        <v>322858.6398760026</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>507485.4416245462</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89354.84311895969</v>
+        <v>89354.84311895967</v>
       </c>
       <c r="C4" t="n">
+        <v>131909.726831625</v>
+      </c>
+      <c r="D4" t="n">
         <v>131909.7268316249</v>
-      </c>
-      <c r="D4" t="n">
-        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
         <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707335</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="I4" t="n">
         <v>6897.424496707369</v>
@@ -26442,19 +26442,19 @@
         <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707425</v>
+        <v>6897.424496707369</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707374</v>
+        <v>6897.424496707368</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707383</v>
+        <v>6897.424496707399</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670738</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-998450.6333552548</v>
+        <v>-998637.0267437936</v>
       </c>
       <c r="C6" t="n">
-        <v>103569.2086742439</v>
+        <v>103569.2086742441</v>
       </c>
       <c r="D6" t="n">
-        <v>103569.2086742441</v>
+        <v>103569.2086742437</v>
       </c>
       <c r="E6" t="n">
-        <v>-292646.7560691581</v>
+        <v>-292681.4939945939</v>
       </c>
       <c r="F6" t="n">
-        <v>214838.6855553882</v>
+        <v>214803.9476299523</v>
       </c>
       <c r="G6" t="n">
-        <v>214838.6855553882</v>
+        <v>214803.9476299528</v>
       </c>
       <c r="H6" t="n">
-        <v>214838.6855553879</v>
+        <v>214803.9476299522</v>
       </c>
       <c r="I6" t="n">
-        <v>214838.6855553879</v>
+        <v>214803.9476299522</v>
       </c>
       <c r="J6" t="n">
-        <v>47233.50774540544</v>
+        <v>47198.76981996975</v>
       </c>
       <c r="K6" t="n">
-        <v>214838.6855553878</v>
+        <v>214803.9476299522</v>
       </c>
       <c r="L6" t="n">
-        <v>214838.6855553878</v>
+        <v>214803.9476299522</v>
       </c>
       <c r="M6" t="n">
-        <v>82231.39182646097</v>
+        <v>82196.65390102552</v>
       </c>
       <c r="N6" t="n">
-        <v>214838.6855553879</v>
+        <v>214803.9476299523</v>
       </c>
       <c r="O6" t="n">
-        <v>214838.6855553878</v>
+        <v>214803.9476299523</v>
       </c>
       <c r="P6" t="n">
-        <v>214838.6855553881</v>
+        <v>214803.9476299522</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175393</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,7 +26790,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26799,10 +26799,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>433.9106082241349</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>368.0751497519991</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>153.2955094407477</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,13 +27543,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>110.5050001182218</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>177.4560076253239</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>31.6958429563183</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>272.7926294097707</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>138.5805643923306</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>126.1060822959521</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>259.5327110783492</v>
+        <v>371.4904910112464</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>48.27263937723802</v>
       </c>
       <c r="F10" t="n">
-        <v>27.29362495581769</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-2.495430374854276e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>3.110756097157719e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,7 +31865,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,19 +32078,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,7 +32102,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,13 +32324,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32567,7 +32567,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32792,7 +32792,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>225.4828684302377</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,10 +33503,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,7 +33737,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33983,10 +33983,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>615.5326193530509</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0158803980272</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>491.0077074256856</v>
+        <v>617.0987427660937</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295562</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,13 +35972,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36215,7 +36215,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,7 +36440,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37631,10 +37631,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
